--- a/natmiOut/OldD2/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Itgb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H2">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I2">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J2">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.325460127842106</v>
+        <v>0.370512</v>
       </c>
       <c r="N2">
-        <v>0.325460127842106</v>
+        <v>0.741024</v>
       </c>
       <c r="O2">
-        <v>0.001469862473972854</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P2">
-        <v>0.001469862473972854</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q2">
-        <v>0.4858174901273504</v>
+        <v>0.175179185136</v>
       </c>
       <c r="R2">
-        <v>0.4858174901273504</v>
+        <v>0.700716740544</v>
       </c>
       <c r="S2">
-        <v>0.0008875929459805482</v>
+        <v>0.0002112788191608922</v>
       </c>
       <c r="T2">
-        <v>0.0008875929459805482</v>
+        <v>0.0001054561682733009</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H3">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I3">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J3">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>120.713024122564</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N3">
-        <v>120.713024122564</v>
+        <v>0.040702</v>
       </c>
       <c r="O3">
-        <v>0.5451713715408358</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="P3">
-        <v>0.5451713715408358</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="Q3">
-        <v>180.1895021480394</v>
+        <v>0.006414675902</v>
       </c>
       <c r="R3">
-        <v>180.1895021480394</v>
+        <v>0.038488055412</v>
       </c>
       <c r="S3">
-        <v>0.3292078492365969</v>
+        <v>7.736564985287597E-06</v>
       </c>
       <c r="T3">
-        <v>0.3292078492365969</v>
+        <v>5.792358899387728E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,185 +652,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H4">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I4">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J4">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>100.383678438344</v>
+        <v>124.6539663333333</v>
       </c>
       <c r="N4">
-        <v>100.383678438344</v>
+        <v>373.961899</v>
       </c>
       <c r="O4">
-        <v>0.4533587659851912</v>
+        <v>0.5513659638308388</v>
       </c>
       <c r="P4">
-        <v>0.4533587659851912</v>
+        <v>0.5516673283636507</v>
       </c>
       <c r="Q4">
-        <v>149.8436906296759</v>
+        <v>58.936769244299</v>
       </c>
       <c r="R4">
-        <v>149.8436906296759</v>
+        <v>353.620615465794</v>
       </c>
       <c r="S4">
-        <v>0.2737657772834151</v>
+        <v>0.07108202382278651</v>
       </c>
       <c r="T4">
-        <v>0.2737657772834151</v>
+        <v>0.05321904411833778</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.377961510511904</v>
+        <v>0.472803</v>
       </c>
       <c r="H5">
-        <v>0.377961510511904</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I5">
-        <v>0.1529006601162442</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J5">
-        <v>0.1529006601162442</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.325460127842106</v>
+        <v>100.6318613333333</v>
       </c>
       <c r="N5">
-        <v>0.325460127842106</v>
+        <v>301.895584</v>
       </c>
       <c r="O5">
-        <v>0.001469862473972854</v>
+        <v>0.4451120557830784</v>
       </c>
       <c r="P5">
-        <v>0.001469862473972854</v>
+        <v>0.4453553442621279</v>
       </c>
       <c r="Q5">
-        <v>0.1230114015305998</v>
+        <v>47.579045933984</v>
       </c>
       <c r="R5">
-        <v>0.1230114015305998</v>
+        <v>285.4742756039039</v>
       </c>
       <c r="S5">
-        <v>0.0002247429425505452</v>
+        <v>0.05738378468840229</v>
       </c>
       <c r="T5">
-        <v>0.0002247429425505452</v>
+        <v>0.04296318541271326</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.377961510511904</v>
+        <v>0.472803</v>
       </c>
       <c r="H6">
-        <v>0.377961510511904</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I6">
-        <v>0.1529006601162442</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J6">
-        <v>0.1529006601162442</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>120.713024122564</v>
+        <v>0.4121773333333333</v>
       </c>
       <c r="N6">
-        <v>120.713024122564</v>
+        <v>1.236532</v>
       </c>
       <c r="O6">
-        <v>0.5451713715408358</v>
+        <v>0.001823131339879293</v>
       </c>
       <c r="P6">
-        <v>0.5451713715408358</v>
+        <v>0.001824127823450168</v>
       </c>
       <c r="Q6">
-        <v>45.6248769358242</v>
+        <v>0.194878679732</v>
       </c>
       <c r="R6">
-        <v>45.6248769358242</v>
+        <v>1.169272078392</v>
       </c>
       <c r="S6">
-        <v>0.08335706258507204</v>
+        <v>0.0002350378402630741</v>
       </c>
       <c r="T6">
-        <v>0.08335706258507204</v>
+        <v>0.0001759726090751733</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,247 +838,1549 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.377961510511904</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H7">
-        <v>0.377961510511904</v>
+        <v>4.739138</v>
       </c>
       <c r="I7">
-        <v>0.1529006601162442</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J7">
-        <v>0.1529006601162442</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>100.383678438344</v>
+        <v>0.370512</v>
       </c>
       <c r="N7">
-        <v>100.383678438344</v>
+        <v>0.741024</v>
       </c>
       <c r="O7">
-        <v>0.4533587659851912</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P7">
-        <v>0.4533587659851912</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q7">
-        <v>37.94116673329775</v>
+        <v>0.585302499552</v>
       </c>
       <c r="R7">
-        <v>37.94116673329775</v>
+        <v>3.511814997312</v>
       </c>
       <c r="S7">
-        <v>0.06931885458862162</v>
+        <v>0.0007059173203783339</v>
       </c>
       <c r="T7">
-        <v>0.06931885458862162</v>
+        <v>0.0005285196312189162</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.601270441457087</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H8">
-        <v>0.601270441457087</v>
+        <v>4.739138</v>
       </c>
       <c r="I8">
-        <v>0.2432381204177632</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J8">
-        <v>0.2432381204177632</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.325460127842106</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N8">
-        <v>0.325460127842106</v>
+        <v>0.040702</v>
       </c>
       <c r="O8">
-        <v>0.001469862473972854</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="P8">
-        <v>0.001469862473972854</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="Q8">
-        <v>0.195689554744303</v>
+        <v>0.02143248831955556</v>
       </c>
       <c r="R8">
-        <v>0.195689554744303</v>
+        <v>0.192892394876</v>
       </c>
       <c r="S8">
-        <v>0.0003575265854417603</v>
+        <v>2.584913738649846E-05</v>
       </c>
       <c r="T8">
-        <v>0.0003575265854417603</v>
+        <v>2.90298371306089E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.601270441457087</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H9">
-        <v>0.601270441457087</v>
+        <v>4.739138</v>
       </c>
       <c r="I9">
-        <v>0.2432381204177632</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J9">
-        <v>0.2432381204177632</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>120.713024122564</v>
+        <v>124.6539663333333</v>
       </c>
       <c r="N9">
-        <v>120.713024122564</v>
+        <v>373.961899</v>
       </c>
       <c r="O9">
-        <v>0.5451713715408358</v>
+        <v>0.5513659638308388</v>
       </c>
       <c r="P9">
-        <v>0.5451713715408358</v>
+        <v>0.5516673283636507</v>
       </c>
       <c r="Q9">
-        <v>72.58117330379405</v>
+        <v>196.9174495670069</v>
       </c>
       <c r="R9">
-        <v>72.58117330379405</v>
+        <v>1772.257046103062</v>
       </c>
       <c r="S9">
-        <v>0.1326064597191669</v>
+        <v>0.2374967447439158</v>
       </c>
       <c r="T9">
-        <v>0.1326064597191669</v>
+        <v>0.266720382807312</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.579712666666667</v>
+      </c>
+      <c r="H10">
+        <v>4.739138</v>
+      </c>
+      <c r="I10">
+        <v>0.4307424838011595</v>
+      </c>
+      <c r="J10">
+        <v>0.483480476537291</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N10">
+        <v>301.895584</v>
+      </c>
+      <c r="O10">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P10">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q10">
+        <v>158.9694260185102</v>
+      </c>
+      <c r="R10">
+        <v>1430.724834166592</v>
+      </c>
+      <c r="S10">
+        <v>0.1917286724778434</v>
+      </c>
+      <c r="T10">
+        <v>0.2153206140722829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.579712666666667</v>
+      </c>
+      <c r="H11">
+        <v>4.739138</v>
+      </c>
+      <c r="I11">
+        <v>0.4307424838011595</v>
+      </c>
+      <c r="J11">
+        <v>0.483480476537291</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.236532</v>
+      </c>
+      <c r="O11">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P11">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q11">
+        <v>0.6511217543795556</v>
+      </c>
+      <c r="R11">
+        <v>5.860095789416</v>
+      </c>
+      <c r="S11">
+        <v>0.0007853001216353425</v>
+      </c>
+      <c r="T11">
+        <v>0.0008819301893466187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1572373333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.471712</v>
+      </c>
+      <c r="I12">
+        <v>0.04287412574160376</v>
+      </c>
+      <c r="J12">
+        <v>0.04812342298290504</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.370512</v>
+      </c>
+      <c r="N12">
+        <v>0.741024</v>
+      </c>
+      <c r="O12">
+        <v>0.001638838393995521</v>
+      </c>
+      <c r="P12">
+        <v>0.00109315609805839</v>
+      </c>
+      <c r="Q12">
+        <v>0.05825831884800001</v>
+      </c>
+      <c r="R12">
+        <v>0.349549913088</v>
+      </c>
+      <c r="S12">
+        <v>7.026376337433194E-05</v>
+      </c>
+      <c r="T12">
+        <v>5.260641329320594E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1572373333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.471712</v>
+      </c>
+      <c r="I13">
+        <v>0.04287412574160376</v>
+      </c>
+      <c r="J13">
+        <v>0.04812342298290504</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.040702</v>
+      </c>
+      <c r="O13">
+        <v>6.001065220776088E-05</v>
+      </c>
+      <c r="P13">
+        <v>6.004345271296559E-05</v>
+      </c>
+      <c r="Q13">
+        <v>0.002133291313777778</v>
+      </c>
+      <c r="R13">
+        <v>0.019199621824</v>
+      </c>
+      <c r="S13">
+        <v>2.572904248591192E-06</v>
+      </c>
+      <c r="T13">
+        <v>2.8894964722601E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1572373333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.471712</v>
+      </c>
+      <c r="I14">
+        <v>0.04287412574160376</v>
+      </c>
+      <c r="J14">
+        <v>0.04812342298290504</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N14">
+        <v>373.961899</v>
+      </c>
+      <c r="O14">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P14">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q14">
+        <v>19.60025725567645</v>
+      </c>
+      <c r="R14">
+        <v>176.402315301088</v>
+      </c>
+      <c r="S14">
+        <v>0.02363933366292394</v>
+      </c>
+      <c r="T14">
+        <v>0.02654812018869313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1572373333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.471712</v>
+      </c>
+      <c r="I15">
+        <v>0.04287412574160376</v>
+      </c>
+      <c r="J15">
+        <v>0.04812342298290504</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N15">
+        <v>301.895584</v>
+      </c>
+      <c r="O15">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P15">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q15">
+        <v>15.82308552442311</v>
+      </c>
+      <c r="R15">
+        <v>142.407769719808</v>
+      </c>
+      <c r="S15">
+        <v>0.01908379024874745</v>
+      </c>
+      <c r="T15">
+        <v>0.02143202360962367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.601270441457087</v>
-      </c>
-      <c r="H10">
-        <v>0.601270441457087</v>
-      </c>
-      <c r="I10">
-        <v>0.2432381204177632</v>
-      </c>
-      <c r="J10">
-        <v>0.2432381204177632</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>100.383678438344</v>
-      </c>
-      <c r="N10">
-        <v>100.383678438344</v>
-      </c>
-      <c r="O10">
-        <v>0.4533587659851912</v>
-      </c>
-      <c r="P10">
-        <v>0.4533587659851912</v>
-      </c>
-      <c r="Q10">
-        <v>60.35773864970936</v>
-      </c>
-      <c r="R10">
-        <v>60.35773864970936</v>
-      </c>
-      <c r="S10">
-        <v>0.1102741341131545</v>
-      </c>
-      <c r="T10">
-        <v>0.1102741341131545</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1572373333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.471712</v>
+      </c>
+      <c r="I16">
+        <v>0.04287412574160376</v>
+      </c>
+      <c r="J16">
+        <v>0.04812342298290504</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.236532</v>
+      </c>
+      <c r="O16">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P16">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q16">
+        <v>0.06480966475377778</v>
+      </c>
+      <c r="R16">
+        <v>0.583286982784</v>
+      </c>
+      <c r="S16">
+        <v>7.816516230944335E-05</v>
+      </c>
+      <c r="T16">
+        <v>8.778327482277838E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.740156</v>
+      </c>
+      <c r="I17">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J17">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.370512</v>
+      </c>
+      <c r="N17">
+        <v>0.741024</v>
+      </c>
+      <c r="O17">
+        <v>0.001638838393995521</v>
+      </c>
+      <c r="P17">
+        <v>0.00109315609805839</v>
+      </c>
+      <c r="Q17">
+        <v>0.091412226624</v>
+      </c>
+      <c r="R17">
+        <v>0.548473359744</v>
+      </c>
+      <c r="S17">
+        <v>0.0001102497838598383</v>
+      </c>
+      <c r="T17">
+        <v>8.254390907470265E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.740156</v>
+      </c>
+      <c r="I18">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J18">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.040702</v>
+      </c>
+      <c r="O18">
+        <v>6.001065220776088E-05</v>
+      </c>
+      <c r="P18">
+        <v>6.004345271296559E-05</v>
+      </c>
+      <c r="Q18">
+        <v>0.003347314390222222</v>
+      </c>
+      <c r="R18">
+        <v>0.030125829512</v>
+      </c>
+      <c r="S18">
+        <v>4.037104243734019E-06</v>
+      </c>
+      <c r="T18">
+        <v>4.533864202992814E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.740156</v>
+      </c>
+      <c r="I19">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J19">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N19">
+        <v>373.961899</v>
+      </c>
+      <c r="O19">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P19">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q19">
+        <v>30.75446036847156</v>
+      </c>
+      <c r="R19">
+        <v>276.790143316244</v>
+      </c>
+      <c r="S19">
+        <v>0.03709211265902738</v>
+      </c>
+      <c r="T19">
+        <v>0.04165624458648996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.740156</v>
+      </c>
+      <c r="I20">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J20">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N20">
+        <v>301.895584</v>
+      </c>
+      <c r="O20">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P20">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q20">
+        <v>24.82775865234489</v>
+      </c>
+      <c r="R20">
+        <v>223.449827871104</v>
+      </c>
+      <c r="S20">
+        <v>0.02994407997963147</v>
+      </c>
+      <c r="T20">
+        <v>0.03362865660997519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.740156</v>
+      </c>
+      <c r="I21">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J21">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.236532</v>
+      </c>
+      <c r="O21">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P21">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q21">
+        <v>0.1016918421102222</v>
+      </c>
+      <c r="R21">
+        <v>0.915226578992</v>
+      </c>
+      <c r="S21">
+        <v>0.0001226477466638719</v>
+      </c>
+      <c r="T21">
+        <v>0.0001377393781793305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H22">
+        <v>1.450874</v>
+      </c>
+      <c r="I22">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J22">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.370512</v>
+      </c>
+      <c r="N22">
+        <v>0.741024</v>
+      </c>
+      <c r="O22">
+        <v>0.001638838393995521</v>
+      </c>
+      <c r="P22">
+        <v>0.00109315609805839</v>
+      </c>
+      <c r="Q22">
+        <v>0.179188742496</v>
+      </c>
+      <c r="R22">
+        <v>1.075132454976</v>
+      </c>
+      <c r="S22">
+        <v>0.0002161146365196782</v>
+      </c>
+      <c r="T22">
+        <v>0.0001618048243003504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H23">
+        <v>1.450874</v>
+      </c>
+      <c r="I23">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J23">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.040702</v>
+      </c>
+      <c r="O23">
+        <v>6.001065220776088E-05</v>
+      </c>
+      <c r="P23">
+        <v>6.004345271296559E-05</v>
+      </c>
+      <c r="Q23">
+        <v>0.006561497060888889</v>
+      </c>
+      <c r="R23">
+        <v>0.059053473548</v>
+      </c>
+      <c r="S23">
+        <v>7.913641965373991E-06</v>
+      </c>
+      <c r="T23">
+        <v>8.887404400765511E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H24">
+        <v>1.450874</v>
+      </c>
+      <c r="I24">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J24">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N24">
+        <v>373.961899</v>
+      </c>
+      <c r="O24">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P24">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q24">
+        <v>60.28573291663623</v>
+      </c>
+      <c r="R24">
+        <v>542.571596249726</v>
+      </c>
+      <c r="S24">
+        <v>0.07270897197625055</v>
+      </c>
+      <c r="T24">
+        <v>0.08165570799693447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H25">
+        <v>1.450874</v>
+      </c>
+      <c r="I25">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J25">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N25">
+        <v>301.895584</v>
+      </c>
+      <c r="O25">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P25">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q25">
+        <v>48.66805039337955</v>
+      </c>
+      <c r="R25">
+        <v>438.012453540416</v>
+      </c>
+      <c r="S25">
+        <v>0.05869720315226496</v>
+      </c>
+      <c r="T25">
+        <v>0.06591981086465711</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H26">
+        <v>1.450874</v>
+      </c>
+      <c r="I26">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J26">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N26">
+        <v>1.236532</v>
+      </c>
+      <c r="O26">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P26">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q26">
+        <v>0.1993391254408889</v>
+      </c>
+      <c r="R26">
+        <v>1.794052128968</v>
+      </c>
+      <c r="S26">
+        <v>0.0002404174617150959</v>
+      </c>
+      <c r="T26">
+        <v>0.0002700004898650527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.7273215</v>
+      </c>
+      <c r="H27">
+        <v>1.454643</v>
+      </c>
+      <c r="I27">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J27">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.370512</v>
+      </c>
+      <c r="N27">
+        <v>0.741024</v>
+      </c>
+      <c r="O27">
+        <v>0.001638838393995521</v>
+      </c>
+      <c r="P27">
+        <v>0.00109315609805839</v>
+      </c>
+      <c r="Q27">
+        <v>0.269481343608</v>
+      </c>
+      <c r="R27">
+        <v>1.077925374432</v>
+      </c>
+      <c r="S27">
+        <v>0.0003250140707024466</v>
+      </c>
+      <c r="T27">
+        <v>0.0001622251518979143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.7273215</v>
+      </c>
+      <c r="H28">
+        <v>1.454643</v>
+      </c>
+      <c r="I28">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J28">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.040702</v>
+      </c>
+      <c r="O28">
+        <v>6.001065220776088E-05</v>
+      </c>
+      <c r="P28">
+        <v>6.004345271296559E-05</v>
+      </c>
+      <c r="Q28">
+        <v>0.009867813231</v>
+      </c>
+      <c r="R28">
+        <v>0.059206879386</v>
+      </c>
+      <c r="S28">
+        <v>1.190129937827563E-05</v>
+      </c>
+      <c r="T28">
+        <v>8.910491606950529E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.7273215</v>
+      </c>
+      <c r="H29">
+        <v>1.454643</v>
+      </c>
+      <c r="I29">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J29">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N29">
+        <v>373.961899</v>
+      </c>
+      <c r="O29">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P29">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q29">
+        <v>90.66350977450951</v>
+      </c>
+      <c r="R29">
+        <v>543.981058647057</v>
+      </c>
+      <c r="S29">
+        <v>0.1093467769659347</v>
+      </c>
+      <c r="T29">
+        <v>0.08186782866588328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.7273215</v>
+      </c>
+      <c r="H30">
+        <v>1.454643</v>
+      </c>
+      <c r="I30">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J30">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N30">
+        <v>301.895584</v>
+      </c>
+      <c r="O30">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P30">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q30">
+        <v>73.19171633275199</v>
+      </c>
+      <c r="R30">
+        <v>439.1502979965119</v>
+      </c>
+      <c r="S30">
+        <v>0.08827452523618884</v>
+      </c>
+      <c r="T30">
+        <v>0.06609105369287574</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.7273215</v>
+      </c>
+      <c r="H31">
+        <v>1.454643</v>
+      </c>
+      <c r="I31">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J31">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N31">
+        <v>1.236532</v>
+      </c>
+      <c r="O31">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P31">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q31">
+        <v>0.299785436346</v>
+      </c>
+      <c r="R31">
+        <v>1.798712618076</v>
+      </c>
+      <c r="S31">
+        <v>0.0003615630072924653</v>
+      </c>
+      <c r="T31">
+        <v>0.0002707018821612144</v>
       </c>
     </row>
   </sheetData>
